--- a/media/Data.xlsx
+++ b/media/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Skripsi\Program\hdpso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Skripsi\Program\hdpsodjango\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DEDE2B-8C20-4DB7-8656-50A4C99ED939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D19FE1-A0F0-4F5E-A3FA-130BFCE34658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2304,7 +2304,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2331,10 +2331,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0.6</v>
